--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTIBE\Desktop\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTIBE\Desktop\Yahoo-mail-Test-scenario-and-Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
     <sheet name="Login_Scenario" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -164,6 +163,12 @@
   </si>
   <si>
     <t>P0</t>
+  </si>
+  <si>
+    <t>YHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
   </si>
 </sst>
 </file>
@@ -491,20 +496,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -512,23 +518,29 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -542,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
